--- a/biology/Botanique/Paullinia/Paullinia.xlsx
+++ b/biology/Botanique/Paullinia/Paullinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paullinia est un genre de plantes de la famille des Sapindaceae.
 Il comprend des arbustes, de petits arbres et des lianes originaires  d'Amérique du Sud, d'Amérique centrale et des Caraïbes. Son nom rappelle Simon Paulli un herboriste allemand du XVIIe siècle.
@@ -512,14 +524,51 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2010) :
 Paullinia capreolata (Aubl.) Radlk.
 Paullinia cupana Kunth - Guaraná
 Paullinia pinnata L.
-Espèces présentes en Guyane
-Selon INPN      (24 mars 2022)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paullinia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paullinia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sélection d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Guyane</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon INPN      (24 mars 2022) :
 Paullinia alata (Ruiz &amp; Pav.) G.Don, 1831
 Paullinia alsmithii J.F.Macbr., 1956
 Paullinia anodonta Radlk., 1911
@@ -557,33 +606,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Paullinia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paullinia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2010) :
 Paullinia alata
 Paullinia cupana - Guaraná
 Paullinia elegans
@@ -593,13 +644,13 @@
 Paullinia pinnata
 Paullinia subauriculata
 Paullinia venosa
-Selon ITIS      (14 août 2010)[4] :
+Selon ITIS      (14 août 2010) :
 Paullinia cupana Kunth
 Paullinia fuscescens Kunth
 Paullinia pinnata L.
 Paullinia plumieri Triana &amp; Planch.
 Paullinia yoco R. E. Schultes &amp; Killip - Yoco
-Selon GBIF       (23 mars 2022)[1] :
+Selon GBIF       (23 mars 2022) :
 Paullinia acuminata Uittien
 Paullinia acutangula (Ruiz &amp; Pav.) Pers.
 Paullinia acutangula Britton
@@ -838,7 +889,7 @@
 Paullinia wurdackii Acev.-Rodr. &amp; Somner
 Paullinia xestophylla Radlk.
 Paullinia yoco R.E.Schult. &amp; Killip
-Selon World Flora Online (WFO)       (23 mars 2022)[5] :
+Selon World Flora Online (WFO)       (23 mars 2022) :
 Paullinia acuminata Uittien
 Paullinia acutangula (Ruiz &amp; Pav.) Pers.
 Paullinia alata (Ruiz &amp; Pav.) G.Don
